--- a/src/loadFiles/Documents/CI sinstance B.xlsx
+++ b/src/loadFiles/Documents/CI sinstance B.xlsx
@@ -1652,13 +1652,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B8DE3CE-404D-4C53-83CA-BD1513E0E91B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CC0F3FC-E9EE-440A-A5B9-236D6B80F0A3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBAB6390-65A6-4575-8541-8E96831EDC78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CED7BF48-204C-43EC-8722-EA1D76DDF17A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8331F41E-F045-4D42-845F-4AEAEF233512}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3317044E-B6AC-492D-BAA6-0719E49D0356}"/>
 </file>